--- a/Income/CMCSA_inc.xlsx
+++ b/Income/CMCSA_inc.xlsx
@@ -1993,16 +1993,16 @@
         <v>0.5537</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.5587</v>
+        <v>0.5054</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.5213</v>
+        <v>0.4687</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4775</v>
+        <v>0.4264</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.4337</v>
+        <v>0.3827</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3797</v>
@@ -3517,16 +3517,16 @@
         <v>0.2977</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.3077</v>
+        <v>0.3076</v>
       </c>
       <c r="E27" s="0" t="n">
+        <v>0.3127</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.3101</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>0.3128</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0.3102</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>0.3129</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.3078</v>
